--- a/SAMPLE_Chia Wen+Mingqian.xlsx
+++ b/SAMPLE_Chia Wen+Mingqian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\0. study abroad\academic\11. 2024 Winter\1. SurvMeth 745 Practical Tools for Study Design and Inference\2. Assignments\Project (Apr 1)\SurvMeth-745\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2CA755-4F44-406A-AE76-6F6D48B73CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69309CAE-A21B-4510-8345-652ECBE705AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="107">
   <si>
     <t>BlockGroup</t>
   </si>
@@ -330,6 +330,30 @@
   </si>
   <si>
     <t>Tract</t>
+  </si>
+  <si>
+    <t>1/pi_ij</t>
+  </si>
+  <si>
+    <t>1/pi_ijk_18</t>
+  </si>
+  <si>
+    <t>1/pi_ijk_45</t>
+  </si>
+  <si>
+    <t>1/pi_ijk_65</t>
+  </si>
+  <si>
+    <t>Weight of the sampled block group j within Census tract i in the sampling frame</t>
+  </si>
+  <si>
+    <t>Weight of a sampled individual k aged 18-44 within block group j within Census tract i in the sampling frame</t>
+  </si>
+  <si>
+    <t>Weight of a sampled individual k aged 45-64 within block group j within Census tract i in the sampling frame</t>
+  </si>
+  <si>
+    <t>Weight of a sampled individual k aged 65 or above within block group j within Census tract i in the sampling frame</t>
   </si>
 </sst>
 </file>
@@ -370,11 +394,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thick">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -382,17 +406,17 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thick">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -402,7 +426,7 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -410,23 +434,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="thick">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thick">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thick">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -435,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -450,7 +474,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -758,13 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:BD16"/>
+  <dimension ref="A1:BH18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B32"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="BH9" sqref="BH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -786,11 +810,13 @@
     <col min="41" max="41" width="5" bestFit="1" customWidth="1"/>
     <col min="42" max="44" width="6.26953125" bestFit="1" customWidth="1"/>
     <col min="45" max="53" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="101.81640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="101.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="1" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -950,14 +976,26 @@
       <c r="BA1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BB1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BG1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -1117,14 +1155,30 @@
       <c r="BA2">
         <v>5.2981274989359877</v>
       </c>
-      <c r="BC2" s="4" t="s">
+      <c r="BB2">
+        <f>1/AX2</f>
+        <v>2.8086006895768154</v>
+      </c>
+      <c r="BC2">
+        <f>1/AY2</f>
+        <v>0.38187596720475697</v>
+      </c>
+      <c r="BD2">
+        <f>1/AZ2</f>
+        <v>0.2890023619447154</v>
+      </c>
+      <c r="BE2">
+        <f>1/BA2</f>
+        <v>0.18874592961396797</v>
+      </c>
+      <c r="BG2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BD2" s="5" t="s">
+      <c r="BH2" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -1284,14 +1338,30 @@
       <c r="BA3">
         <v>1.67274285217753</v>
       </c>
-      <c r="BC3" s="4" t="s">
+      <c r="BB3">
+        <f t="shared" ref="BB3:BB16" si="0">1/AX3</f>
+        <v>1.4476789584761067</v>
+      </c>
+      <c r="BC3">
+        <f t="shared" ref="BC3:BC16" si="1">1/AY3</f>
+        <v>1.2095269517347031</v>
+      </c>
+      <c r="BD3">
+        <f t="shared" ref="BD3:BD16" si="2">1/AZ3</f>
+        <v>0.91536565771810785</v>
+      </c>
+      <c r="BE3">
+        <f t="shared" ref="BE3:BE16" si="3">1/BA3</f>
+        <v>0.59782051897470545</v>
+      </c>
+      <c r="BG3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="BD3" s="5" t="s">
+      <c r="BH3" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1451,14 +1521,30 @@
       <c r="BA4">
         <v>2.286919807047874</v>
       </c>
-      <c r="BC4" s="4" t="s">
+      <c r="BB4">
+        <f t="shared" si="0"/>
+        <v>2.6346848103266827</v>
+      </c>
+      <c r="BC4">
+        <f t="shared" si="1"/>
+        <v>0.88469545665531379</v>
+      </c>
+      <c r="BD4">
+        <f t="shared" si="2"/>
+        <v>0.66953434762248953</v>
+      </c>
+      <c r="BE4">
+        <f t="shared" si="3"/>
+        <v>0.43726937731624016</v>
+      </c>
+      <c r="BG4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="BD4" s="5" t="s">
+      <c r="BH4" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -1618,14 +1704,30 @@
       <c r="BA5">
         <v>1.4036842834712271</v>
       </c>
-      <c r="BC5" s="4" t="s">
+      <c r="BB5">
+        <f t="shared" si="0"/>
+        <v>2.028565564032947</v>
+      </c>
+      <c r="BC5">
+        <f t="shared" si="1"/>
+        <v>1.4413693925723672</v>
+      </c>
+      <c r="BD5">
+        <f t="shared" si="2"/>
+        <v>1.0908231851754111</v>
+      </c>
+      <c r="BE5">
+        <f t="shared" si="3"/>
+        <v>0.71241091160973891</v>
+      </c>
+      <c r="BG5" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="BD5" s="5" t="s">
+      <c r="BH5" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -1785,14 +1887,30 @@
       <c r="BA6">
         <v>2.0041766800837899</v>
       </c>
-      <c r="BC6" s="4" t="s">
+      <c r="BB6">
+        <f t="shared" si="0"/>
+        <v>1.4767425058993959</v>
+      </c>
+      <c r="BC6">
+        <f t="shared" si="1"/>
+        <v>1.0095055905678505</v>
+      </c>
+      <c r="BD6">
+        <f t="shared" si="2"/>
+        <v>0.7639902091929005</v>
+      </c>
+      <c r="BE6">
+        <f t="shared" si="3"/>
+        <v>0.49895800601681101</v>
+      </c>
+      <c r="BG6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="BD6" s="5" t="s">
+      <c r="BH6" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -1952,14 +2070,30 @@
       <c r="BA7">
         <v>3.1277685134223119</v>
       </c>
-      <c r="BC7" s="4" t="s">
+      <c r="BB7">
+        <f t="shared" si="0"/>
+        <v>1.9681995007276287</v>
+      </c>
+      <c r="BC7">
+        <f t="shared" si="1"/>
+        <v>0.64685975140038265</v>
+      </c>
+      <c r="BD7">
+        <f t="shared" si="2"/>
+        <v>0.4895411391559108</v>
+      </c>
+      <c r="BE7">
+        <f t="shared" si="3"/>
+        <v>0.31971675515904135</v>
+      </c>
+      <c r="BG7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BD7" s="5" t="s">
+      <c r="BH7" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -2119,14 +2253,30 @@
       <c r="BA8">
         <v>5.4437226301749222</v>
       </c>
-      <c r="BC8" s="4" t="s">
+      <c r="BB8">
+        <f t="shared" si="0"/>
+        <v>5.21624036790024</v>
+      </c>
+      <c r="BC8">
+        <f t="shared" si="1"/>
+        <v>0.37166250018239622</v>
+      </c>
+      <c r="BD8">
+        <f t="shared" si="2"/>
+        <v>0.28127284674449837</v>
+      </c>
+      <c r="BE8">
+        <f t="shared" si="3"/>
+        <v>0.1836978237019154</v>
+      </c>
+      <c r="BG8" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="BD8" s="5" t="s">
+      <c r="BH8" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -2286,14 +2436,30 @@
       <c r="BA9">
         <v>6.5486382537732393</v>
       </c>
-      <c r="BC9" s="4" t="s">
+      <c r="BB9">
+        <f t="shared" si="0"/>
+        <v>4.7789044408961798</v>
+      </c>
+      <c r="BC9">
+        <f t="shared" si="1"/>
+        <v>0.30895393586056519</v>
+      </c>
+      <c r="BD9">
+        <f t="shared" si="2"/>
+        <v>0.23381523024187625</v>
+      </c>
+      <c r="BE9">
+        <f t="shared" si="3"/>
+        <v>0.15270350281202555</v>
+      </c>
+      <c r="BG9" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="BD9" s="5" t="s">
+      <c r="BH9" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -2453,14 +2619,30 @@
       <c r="BA10">
         <v>2.3324662370227172</v>
       </c>
-      <c r="BC10" s="4" t="s">
+      <c r="BB10">
+        <f t="shared" si="0"/>
+        <v>2.3447358695405751</v>
+      </c>
+      <c r="BC10">
+        <f t="shared" si="1"/>
+        <v>0.86741987125732456</v>
+      </c>
+      <c r="BD10">
+        <f t="shared" si="2"/>
+        <v>0.65646024657197888</v>
+      </c>
+      <c r="BE10">
+        <f t="shared" si="3"/>
+        <v>0.42873075036509539</v>
+      </c>
+      <c r="BG10" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="BD10" s="5" t="s">
+      <c r="BH10" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -2620,14 +2802,30 @@
       <c r="BA11">
         <v>4.8101137195700767</v>
       </c>
-      <c r="BC11" s="4" t="s">
+      <c r="BB11">
+        <f t="shared" si="0"/>
+        <v>5.2146667451883726</v>
+      </c>
+      <c r="BC11">
+        <f t="shared" si="1"/>
+        <v>0.42061948656197978</v>
+      </c>
+      <c r="BD11">
+        <f t="shared" si="2"/>
+        <v>0.31832331839622341</v>
+      </c>
+      <c r="BE11">
+        <f t="shared" si="3"/>
+        <v>0.20789529277269958</v>
+      </c>
+      <c r="BG11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="BD11" s="5" t="s">
+      <c r="BH11" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -2787,14 +2985,30 @@
       <c r="BA12">
         <v>2.853323226743572</v>
       </c>
-      <c r="BC12" s="4" t="s">
+      <c r="BB12">
+        <f t="shared" si="0"/>
+        <v>3.1153867403977662</v>
+      </c>
+      <c r="BC12">
+        <f t="shared" si="1"/>
+        <v>0.7090775920747544</v>
+      </c>
+      <c r="BD12">
+        <f t="shared" si="2"/>
+        <v>0.53662737776267899</v>
+      </c>
+      <c r="BE12">
+        <f t="shared" si="3"/>
+        <v>0.35046853108936959</v>
+      </c>
+      <c r="BG12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="BD12" s="5" t="s">
+      <c r="BH12" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -2954,14 +3168,30 @@
       <c r="BA13">
         <v>3.920802258616404</v>
       </c>
-      <c r="BC13" s="4" t="s">
+      <c r="BB13">
+        <f t="shared" si="0"/>
+        <v>2.4730659483733795</v>
+      </c>
+      <c r="BC13">
+        <f t="shared" si="1"/>
+        <v>0.51602387204915312</v>
+      </c>
+      <c r="BD13">
+        <f t="shared" si="2"/>
+        <v>0.3905250150557395</v>
+      </c>
+      <c r="BE13">
+        <f t="shared" si="3"/>
+        <v>0.25504984287396476</v>
+      </c>
+      <c r="BG13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="BD13" s="5" t="s">
+      <c r="BH13" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -3121,14 +3351,30 @@
       <c r="BA14">
         <v>4.4878746221870012</v>
       </c>
-      <c r="BC14" s="6" t="s">
+      <c r="BB14">
+        <f t="shared" si="0"/>
+        <v>2.3892634890714515</v>
+      </c>
+      <c r="BC14">
+        <f t="shared" si="1"/>
+        <v>0.45082087476952631</v>
+      </c>
+      <c r="BD14">
+        <f t="shared" si="2"/>
+        <v>0.34117962063980029</v>
+      </c>
+      <c r="BE14">
+        <f t="shared" si="3"/>
+        <v>0.22282262411169737</v>
+      </c>
+      <c r="BG14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="BD14" s="7" t="s">
+      <c r="BH14" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:56" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -3288,8 +3534,30 @@
       <c r="BA15">
         <v>3.2496602126405469</v>
       </c>
+      <c r="BB15">
+        <f t="shared" si="0"/>
+        <v>2.5948854428468833</v>
+      </c>
+      <c r="BC15">
+        <f t="shared" si="1"/>
+        <v>0.62259665030834244</v>
+      </c>
+      <c r="BD15">
+        <f t="shared" si="2"/>
+        <v>0.47117891129687628</v>
+      </c>
+      <c r="BE15">
+        <f t="shared" si="3"/>
+        <v>0.30772448027341265</v>
+      </c>
+      <c r="BG15" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH15" s="5" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -3448,10 +3716,48 @@
       </c>
       <c r="BA16">
         <v>4.7518594406164851</v>
+      </c>
+      <c r="BB16">
+        <f t="shared" si="0"/>
+        <v>5.6513565098178109</v>
+      </c>
+      <c r="BC16">
+        <f t="shared" si="1"/>
+        <v>0.42577597008379026</v>
+      </c>
+      <c r="BD16">
+        <f t="shared" si="2"/>
+        <v>0.32222572662589127</v>
+      </c>
+      <c r="BE16">
+        <f t="shared" si="3"/>
+        <v>0.21044393515778415</v>
+      </c>
+      <c r="BG16" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="BH16" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="59:60" x14ac:dyDescent="0.35">
+      <c r="BG17" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="BH17" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="59:60" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="BG18" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH18" s="8" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="15" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>